--- a/psyexp/ior-design-short.xlsx
+++ b/psyexp/ior-design-short.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>cue_side</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>left</t>
-  </si>
-  <si>
-    <t>right</t>
   </si>
 </sst>
 </file>
@@ -500,17 +497,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
     </row>
